--- a/data/2023-11-17_All_Bioassay_PAM.xlsx
+++ b/data/2023-11-17_All_Bioassay_PAM.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B53E87-C406-4B40-B3AB-322797C73DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2485C6B-2E1F-415B-AF9D-618DD95562B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C0D5285-EDD7-4F6F-ACE5-554FAA2B597A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{1C0D5285-EDD7-4F6F-ACE5-554FAA2B597A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId3"/>
+    <sheet name="all" sheetId="1" r:id="rId3"/>
+    <sheet name="2_transformed" sheetId="4" r:id="rId4"/>
+    <sheet name="3_transformed" sheetId="5" r:id="rId5"/>
+    <sheet name="4_transformed" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +101,12 @@
   </si>
   <si>
     <t>Average of Fv_Fm</t>
+  </si>
+  <si>
+    <t>ln_FvFm</t>
+  </si>
+  <si>
+    <t>inverse</t>
   </si>
 </sst>
 </file>
@@ -157,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,10 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -201,7 +206,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Catherine Schlenker" refreshedDate="45247.548205439816" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="141" xr:uid="{6B0FBE4C-80E8-46EC-B7ED-FFC49CBEDA3C}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C1048576" sheet="Sheet2"/>
+    <worksheetSource ref="A1:C1048576" sheet="all"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Date" numFmtId="0">
@@ -947,7 +952,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97FA62E3-BF25-489A-BA47-EA2DB93BA72F}" name="PivotTable7" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{97FA62E3-BF25-489A-BA47-EA2DB93BA72F}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1378,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66FCCB7-DBAF-4CB3-9579-92978C9E3F55}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1407,7 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>0.61420000000000008</v>
       </c>
     </row>
@@ -1413,7 +1418,7 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>0.66900000000000015</v>
       </c>
     </row>
@@ -1424,7 +1429,7 @@
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>0.70979999999999999</v>
       </c>
     </row>
@@ -1435,7 +1440,7 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>0.78680000000000005</v>
       </c>
     </row>
@@ -1446,7 +1451,7 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>0.60619999999999996</v>
       </c>
     </row>
@@ -1457,7 +1462,7 @@
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>0.61359999999999992</v>
       </c>
     </row>
@@ -1468,7 +1473,7 @@
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>0.60519999999999996</v>
       </c>
     </row>
@@ -1633,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2E117C-6F6F-4F28-87AE-4960AEFE6EF2}">
   <dimension ref="A3:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:B27"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1660,7 @@
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>0.65782857142857154</v>
       </c>
     </row>
@@ -1663,7 +1668,7 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>0.61420000000000008</v>
       </c>
     </row>
@@ -1671,7 +1676,7 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>0.66900000000000015</v>
       </c>
     </row>
@@ -1679,7 +1684,7 @@
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>0.70979999999999999</v>
       </c>
     </row>
@@ -1687,7 +1692,7 @@
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>0.78680000000000005</v>
       </c>
     </row>
@@ -1695,7 +1700,7 @@
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>0.60619999999999996</v>
       </c>
     </row>
@@ -1703,7 +1708,7 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>0.61359999999999992</v>
       </c>
     </row>
@@ -1711,7 +1716,7 @@
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>0.60519999999999996</v>
       </c>
     </row>
@@ -1719,7 +1724,7 @@
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>0.51456666666666673</v>
       </c>
     </row>
@@ -1727,7 +1732,7 @@
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>0.47299999999999998</v>
       </c>
     </row>
@@ -1735,7 +1740,7 @@
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>0.61020000000000008</v>
       </c>
     </row>
@@ -1743,7 +1748,7 @@
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>0.52759999999999996</v>
       </c>
     </row>
@@ -1751,7 +1756,7 @@
       <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>0.58820000000000006</v>
       </c>
     </row>
@@ -1759,7 +1764,7 @@
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>0.40839999999999999</v>
       </c>
     </row>
@@ -1767,7 +1772,7 @@
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>0.48</v>
       </c>
     </row>
@@ -1775,13 +1780,12 @@
       <c r="A19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>0.64794285714285726</v>
       </c>
     </row>
@@ -1789,7 +1793,7 @@
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>0.5282</v>
       </c>
     </row>
@@ -1797,7 +1801,7 @@
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>0.67639999999999989</v>
       </c>
     </row>
@@ -1805,7 +1809,7 @@
       <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>0.67320000000000002</v>
       </c>
     </row>
@@ -1813,7 +1817,7 @@
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>0.66039999999999999</v>
       </c>
     </row>
@@ -1821,7 +1825,7 @@
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>0.68659999999999999</v>
       </c>
     </row>
@@ -1829,7 +1833,7 @@
       <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>0.66539999999999999</v>
       </c>
     </row>
@@ -1837,7 +1841,7 @@
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27">
         <v>0.64539999999999997</v>
       </c>
     </row>
@@ -1845,19 +1849,17 @@
       <c r="A28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>0.61138999999999977</v>
       </c>
     </row>
@@ -1868,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B629FBB1-F6A2-487C-BBFE-5C5771C8948B}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1879,7 +1881,7 @@
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,8 +1891,14 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1900,8 +1908,16 @@
       <c r="C2">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>LN(C2)</f>
+        <v>-0.47642419704865829</v>
+      </c>
+      <c r="E2">
+        <f>1/C2</f>
+        <v>1.6103059581320451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1911,8 +1927,16 @@
       <c r="C3">
         <v>0.58499999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">LN(C3)</f>
+        <v>-0.53614343175028067</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="1">1/C3</f>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1922,8 +1946,16 @@
       <c r="C4">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.45413028008944539</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.5748031496062991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1933,8 +1965,16 @@
       <c r="C5">
         <v>0.57799999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1944,8 +1984,16 @@
       <c r="C6">
         <v>0.60699999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.4992264879226388</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.6474464579901154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1955,8 +2003,16 @@
       <c r="C7">
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-0.41855034765681981</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.519756838905775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1966,8 +2022,16 @@
       <c r="C8">
         <v>0.54500000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.60696948431889286</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.8348623853211008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1977,8 +2041,16 @@
       <c r="C9">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.31471074483970024</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1988,8 +2060,16 @@
       <c r="C10">
         <v>0.57399999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.55512588266257068</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.7421602787456447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1999,8 +2079,16 @@
       <c r="C11">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.57270102748407825</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.773049645390071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2010,8 +2098,16 @@
       <c r="C12">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.40947312950570314</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.506024096385542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2021,8 +2117,16 @@
       <c r="C13">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.4577259475218658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2032,8 +2136,16 @@
       <c r="C14">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.39600994933740918</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.4858841010401187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2043,8 +2155,16 @@
       <c r="C15">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.40496523306651327</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.4992503748125936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -2054,8 +2174,16 @@
       <c r="C16">
         <v>0.65500000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.42312004334688508</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.5267175572519083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -2065,8 +2193,16 @@
       <c r="C17">
         <v>0.58499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.53614343175028067</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -2076,8 +2212,16 @@
       <c r="C18">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.54128483125069926</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.7182130584192441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2087,8 +2231,16 @@
       <c r="C19">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.44472582206146699</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.5600624024960998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -2098,8 +2250,16 @@
       <c r="C20">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.38272562113867487</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.4662756598240467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2109,8 +2269,16 @@
       <c r="C21">
         <v>0.57799999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2120,8 +2288,16 @@
       <c r="C22">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.48288625507674926</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.6207455429497568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2131,8 +2307,16 @@
       <c r="C23">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.65392646740666394</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2142,8 +2326,16 @@
       <c r="C24">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-0.32020526415734102</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.3774104683195594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2153,8 +2345,16 @@
       <c r="C25">
         <v>0.59399999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.52087595961949218</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.6835016835016836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -2164,8 +2364,16 @@
       <c r="C26">
         <v>0.57399999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.55512588266257068</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.7421602787456447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2175,8 +2383,16 @@
       <c r="C27">
         <v>0.67800000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.38860799104174143</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.4749262536873156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -2186,8 +2402,16 @@
       <c r="C28">
         <v>0.72699999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-0.31882880144861769</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.3755158184319121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2197,8 +2421,16 @@
       <c r="C29">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-0.28501895503229724</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.3297872340425532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -2208,8 +2440,16 @@
       <c r="C30">
         <v>0.84899999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.16369609267078977</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.1778563015312131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -2219,8 +2459,16 @@
       <c r="C31">
         <v>0.92800000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-7.4723546195936422E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.0775862068965516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -2230,8 +2478,16 @@
       <c r="C32">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-0.37251400796847856</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.4513788098693761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -2241,8 +2497,16 @@
       <c r="C33">
         <v>0.69199999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-0.36816932336446756</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.4450867052023122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -2252,8 +2516,16 @@
       <c r="C34">
         <v>0.70499999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-0.34955747616986843</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.4184397163120568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -2263,8 +2535,16 @@
       <c r="C35">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.37106368139083207</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.4492753623188408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -2274,8 +2554,16 @@
       <c r="C36">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-0.25747623039471507</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.2936610608020698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -2291,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -2299,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -2307,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>10</v>
       </c>
@@ -2315,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -2325,8 +2613,16 @@
       <c r="C42">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-0.53785429615391001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.7123287671232879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
@@ -2336,8 +2632,16 @@
       <c r="C43">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-0.54645280140914188</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1.7271157167530227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -2347,8 +2651,16 @@
       <c r="C44">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-1.1425641761972924</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>3.134796238244514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>10</v>
       </c>
@@ -2358,8 +2670,16 @@
       <c r="C45">
         <v>0.55500000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-0.5887871652357024</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1.8018018018018016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -2369,8 +2689,16 @@
       <c r="C46">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-1.1147416705979933</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>10</v>
       </c>
@@ -2380,8 +2708,16 @@
       <c r="C47">
         <v>0.64400000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-0.44005655287778339</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1.5527950310559007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -2391,8 +2727,16 @@
       <c r="C48">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-0.57803437345944064</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1.7825311942958999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2402,8 +2746,16 @@
       <c r="C49">
         <v>0.57799999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
@@ -2413,8 +2765,16 @@
       <c r="C50">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-0.47000362924573558</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>10</v>
       </c>
@@ -2424,8 +2784,16 @@
       <c r="C51">
         <v>0.64300000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-0.44161055474451766</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1.5552099533437014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
@@ -2435,8 +2803,16 @@
       <c r="C52">
         <v>0.34599999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-1.0613165039244128</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>2.8901734104046244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>10</v>
       </c>
@@ -2446,8 +2822,16 @@
       <c r="C53">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>-1.0906441190189327</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>2.9761904761904758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
@@ -2457,8 +2841,16 @@
       <c r="C54">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>-0.53102833108351022</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>1.7006802721088436</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>10</v>
       </c>
@@ -2468,8 +2860,16 @@
       <c r="C55">
         <v>0.58299999999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>-0.53956809263164474</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>1.7152658662092626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -2479,8 +2879,16 @@
       <c r="C56">
         <v>0.54700000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>-0.60330647656015579</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>1.8281535648994514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
@@ -2490,8 +2898,16 @@
       <c r="C57">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>-0.51416452503150534</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>1.6722408026755853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
@@ -2501,8 +2917,16 @@
       <c r="C58">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>-1.1208578976154293</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>3.0674846625766872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>10</v>
       </c>
@@ -2512,8 +2936,16 @@
       <c r="C59">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>-1.287354413264987</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>3.6231884057971011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -2523,8 +2955,16 @@
       <c r="C60">
         <v>0.46100000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>-0.77435723598548845</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>2.1691973969631237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>10</v>
       </c>
@@ -2534,8 +2974,16 @@
       <c r="C61">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>-0.96495590385543606</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>2.6246719160104988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
@@ -2545,8 +2993,16 @@
       <c r="C62">
         <v>0.621</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>-0.47642419704865829</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>1.6103059581320451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>10</v>
       </c>
@@ -2556,8 +3012,16 @@
       <c r="C63">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-1.0216512475319814</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>10</v>
       </c>
@@ -2567,8 +3031,16 @@
       <c r="C64">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>-0.41703174447962976</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>1.5174506828528072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
         <v>10</v>
       </c>
@@ -2578,8 +3050,16 @@
       <c r="C65">
         <v>0.66100000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-0.41400143913045073</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>1.51285930408472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -2589,8 +3069,16 @@
       <c r="C66">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>-0.44628710262841947</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>10</v>
       </c>
@@ -2600,8 +3088,16 @@
       <c r="C67">
         <v>0.65400000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <f t="shared" ref="D67:D106" si="2">LN(C67)</f>
+        <v>-0.4246479275249383</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E106" si="3">1/C67</f>
+        <v>1.5290519877675841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -2611,8 +3107,16 @@
       <c r="C68">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>-0.89159811928378363</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>10</v>
       </c>
@@ -2622,8 +3126,16 @@
       <c r="C69">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -2633,8 +3145,16 @@
       <c r="C70">
         <v>0.63800000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>-0.44941699563734716</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>1.567398119122257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>10</v>
       </c>
@@ -2644,8 +3164,16 @@
       <c r="C71">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>-1.0906441190189327</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>2.9761904761904758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -2655,8 +3183,16 @@
       <c r="C72">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>-0.50418108104732218</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>1.6556291390728477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -2666,8 +3202,16 @@
       <c r="C73">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>-0.4748151862429576</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>1.607717041800643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -2677,8 +3221,16 @@
       <c r="C74">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -2688,8 +3240,16 @@
       <c r="C75">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>-0.36240561864771748</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>1.4367816091954024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -2699,8 +3259,16 @@
       <c r="C76">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>-0.43850496218636453</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>1.5503875968992247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -2710,8 +3278,16 @@
       <c r="C77">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>-0.59602046982922252</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>1.8148820326678765</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
@@ -2721,8 +3297,16 @@
       <c r="C78">
         <v>0.51900000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>-0.65585139581624841</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>1.9267822736030829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -2732,8 +3316,16 @@
       <c r="C79">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>-0.73396917508020043</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -2743,8 +3335,16 @@
       <c r="C80">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>-0.59783700075562041</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -2754,8 +3354,16 @@
       <c r="C81">
         <v>0.54100000000000004</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>-0.61433600013565548</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>1.8484288354898335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -2765,8 +3373,16 @@
       <c r="C82">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>-0.39749693845898743</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>1.4880952380952379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -2776,8 +3392,16 @@
       <c r="C83">
         <v>0.67900000000000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>-0.38713415142344088</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>1.4727540500736376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -2787,8 +3411,16 @@
       <c r="C84">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>-0.39304258810960718</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -2798,8 +3430,16 @@
       <c r="C85">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>-0.40047756659712525</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>1.4925373134328357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -2809,8 +3449,16 @@
       <c r="C86">
         <v>0.68600000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>1.4577259475218658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -2820,8 +3468,16 @@
       <c r="C87">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>-0.36961545521446726</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>1.4471780028943562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -2831,8 +3487,16 @@
       <c r="C88">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>-0.47000362924573558</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -2842,8 +3506,16 @@
       <c r="C89">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>-0.40646560844174784</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>1.5015015015015014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
@@ -2853,8 +3525,16 @@
       <c r="C90">
         <v>0.70499999999999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>-0.34955747616986843</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>1.4184397163120568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
@@ -2864,8 +3544,16 @@
       <c r="C91">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>-0.44628710262841947</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -2875,8 +3563,16 @@
       <c r="C92">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>-0.37396644104879345</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>1.4534883720930234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -2886,8 +3582,16 @@
       <c r="C93">
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>-0.35097692282409471</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>1.4204545454545456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -2897,8 +3601,16 @@
       <c r="C94">
         <v>0.70099999999999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>-0.35524739194754701</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="3"/>
+        <v>1.4265335235378032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -2908,8 +3620,16 @@
       <c r="C95">
         <v>0.64400000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>-0.44005655287778339</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>1.5527950310559007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -2919,8 +3639,16 @@
       <c r="C96">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>-0.36240561864771748</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>1.4367816091954024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -2930,8 +3658,16 @@
       <c r="C97">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>-0.4748151862429576</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>1.607717041800643</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -2941,8 +3677,16 @@
       <c r="C98">
         <v>0.63300000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>-0.45728485683796083</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>1.5797788309636651</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -2952,8 +3696,16 @@
       <c r="C99">
         <v>0.70599999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>-0.34814004148889505</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>1.41643059490085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -2963,8 +3715,16 @@
       <c r="C100">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -2974,8 +3734,16 @@
       <c r="C101">
         <v>0.68100000000000005</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>-0.3841929728326246</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>1.4684287812041115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -2985,8 +3753,16 @@
       <c r="C102">
         <v>0.67100000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>-0.39898614201045518</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>1.4903129657228018</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
@@ -2996,8 +3772,16 @@
       <c r="C103">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>-0.39304258810960718</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -3007,8 +3791,16 @@
       <c r="C104">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>-0.39749693845898743</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>1.4880952380952379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -3018,8 +3810,16 @@
       <c r="C105">
         <v>0.66200000000000003</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>-0.41248972304512882</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>1.5105740181268881</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -3028,9 +3828,2056 @@
       </c>
       <c r="C106">
         <v>0.68600000000000005</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>1.4577259475218658</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D1D3BF-8DB8-48E0-A25D-64441327ADFF}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.621</v>
+      </c>
+      <c r="D2">
+        <f>LN(C2)</f>
+        <v>-0.47642419704865829</v>
+      </c>
+      <c r="E2">
+        <f>1/C2</f>
+        <v>1.6103059581320451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D36" si="0">LN(C3)</f>
+        <v>-0.53614343175028067</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E36" si="1">1/C3</f>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.45413028008944539</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.5748031496062991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.4992264879226388</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.6474464579901154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-0.41855034765681981</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.519756838905775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.60696948431889286</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.8348623853211008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.73</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.31471074483970024</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.55512588266257068</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.7421602787456447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.57270102748407825</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.773049645390071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.40947312950570314</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.506024096385542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.4577259475218658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.39600994933740918</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.4858841010401187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.40496523306651327</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.4992503748125936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.42312004334688508</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.5267175572519083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.53614343175028067</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.54128483125069926</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.7182130584192441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.44472582206146699</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.5600624024960998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.38272562113867487</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.4662756598240467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.48288625507674926</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.6207455429497568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.52</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.65392646740666394</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-0.32020526415734102</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.3774104683195594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.52087595961949218</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.6835016835016836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.55512588266257068</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.7421602787456447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.38860799104174143</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.4749262536873156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-0.31882880144861769</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.3755158184319121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.752</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-0.28501895503229724</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.3297872340425532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.16369609267078977</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.1778563015312131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-7.4723546195936422E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.0775862068965516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-0.37251400796847856</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.4513788098693761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-0.36816932336446756</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.4450867052023122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-0.34955747616986843</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.4184397163120568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.69</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.37106368139083207</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.4492753623188408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-0.25747623039471507</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.2936610608020698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490A6648-F71E-436B-A1F2-05181F32410C}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D36" si="0">LN(C7)</f>
+        <v>-0.53785429615391001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E36" si="1">1/C7</f>
+        <v>1.7123287671232879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.54645280140914188</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.7271157167530227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-1.1425641761972924</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.134796238244514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.5887871652357024</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.8018018018018016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-1.1147416705979933</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.0487804878048781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.44005655287778339</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.5527950310559007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.57803437345944064</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.7825311942958999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.54818141030975964</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.7301038062283738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.625</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.47000362924573558</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.44161055474451766</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.5552099533437014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-1.0613165039244128</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.8901734104046244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-1.0906441190189327</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.9761904761904758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.53102833108351022</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.7006802721088436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.53956809263164474</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.7152658662092626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.60330647656015579</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.8281535648994514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.51416452503150534</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.6722408026755853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-1.1208578976154293</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>3.0674846625766872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-1.287354413264987</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>3.6231884057971011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.77435723598548845</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.1691973969631237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.96495590385543606</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.6246719160104988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.621</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.47642419704865829</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.6103059581320451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.36</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-1.0216512475319814</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-0.41703174447962976</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.5174506828528072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.41400143913045073</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.51285930408472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.64</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-0.44628710262841947</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-0.4246479275249383</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.5290519877675841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.41</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-0.89159811928378363</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2.4390243902439024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-0.51082562376599072</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.44941699563734716</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.567398119122257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-1.0906441190189327</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2.9761904761904758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95003ED3-28F6-41A0-9D4A-304CACB7274F}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D36" si="0">LN(C2)</f>
+        <v>-0.50418108104732218</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E36" si="1">1/C2</f>
+        <v>1.6556291390728477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.622</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>-0.4748151862429576</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>1.607717041800643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.66</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.36240561864771748</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.4367816091954024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-0.43850496218636453</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.5503875968992247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-0.59602046982922252</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.8148820326678765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.65585139581624841</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.9267822736030829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.48</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.73396917508020043</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.59783700075562041</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.61433600013565548</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.8484288354898335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.39749693845898743</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.4880952380952379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.38713415142344088</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.4727540500736376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.39304258810960718</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.67</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.40047756659712525</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.4925373134328357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.4577259475218658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.36961545521446726</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.4471780028943562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.625</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.47000362924573558</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.40646560844174784</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.5015015015015014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.34955747616986843</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.4184397163120568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0.64</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.44628710262841947</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.37396644104879345</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.4534883720930234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.35097692282409471</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.4204545454545456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-0.35524739194754701</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.4265335235378032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.44005655287778339</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.5527950310559007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.36240561864771748</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.4367816091954024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0.622</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.4748151862429576</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.607717041800643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-0.45728485683796083</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.5797788309636651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-0.34814004148889505</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.41643059490085</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.66</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-0.41551544396166579</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.5151515151515151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-0.3841929728326246</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.4684287812041115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-0.39898614201045518</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.4903129657228018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-0.39304258810960718</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.4814814814814814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-0.39749693845898743</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.4880952380952379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-0.41248972304512882</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.5105740181268881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-0.37687765125625172</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.4577259475218658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>